--- a/01_Input/00_CO Validation/Brazil - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Brazil - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliana.ferreira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{BDA85394-75DD-41A1-B8FF-18D92543FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16DEEFB7-1EBE-468D-B77D-A2E56A87A405}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{BDA85394-75DD-41A1-B8FF-18D92543FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CA5EE4-645F-48F6-82B2-DE573146097A}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>Project ID</t>
   </si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>The number of beneficiaries</t>
+  </si>
+  <si>
+    <t>415 HH</t>
   </si>
   <si>
     <t>The project will implement sustainable social technologies based on the use of soil, water and biodiversity conservation technologies in degraded areas, in a participatory manner, for families affected by environmental damage, including: construction of zero-base dams (BBZ), implementation of Integration systems Crop-Livestock-Forest (ILPF) and Agroforestry Systems (SAFs), construction of ecological stoves, cisterns for capturing and storing water for human consumption, production and installation of sanitary units (Tevap septic tank, biodigestor tank, round bathroom), oven ecological, sertanejo biodigester, gray water reuse system, among others;</t>
@@ -982,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8EC4AB-E2E1-487F-8291-103B0EF6180A}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1087,23 +1093,23 @@
       <c r="G2" s="20">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
-        <v>415</v>
+      <c r="H2" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="19" t="s">
         <v>21</v>
@@ -1119,36 +1125,36 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
@@ -1161,10 +1167,10 @@
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -1173,22 +1179,22 @@
         <v>200</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -1329,7 +1335,7 @@
         <v>1733569</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>22</v>
@@ -1341,18 +1347,18 @@
         <v>415</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="13"/>
       <c r="O2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>21</v>
@@ -1364,32 +1370,32 @@
       <c r="C3" s="42"/>
       <c r="D3" s="44"/>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="12"/>
       <c r="O3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="183">
@@ -1398,10 +1404,10 @@
       <c r="C4" s="42"/>
       <c r="D4" s="44"/>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1410,20 +1416,20 @@
         <v>200</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="12"/>
       <c r="O4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1433,7 +1439,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1552,31 +1558,31 @@
         <v>1733569</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="152.25">
@@ -1585,19 +1591,19 @@
       <c r="C3" s="42"/>
       <c r="D3" s="44"/>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -1607,10 +1613,10 @@
       <c r="C4" s="42"/>
       <c r="D4" s="44"/>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1619,7 +1625,7 @@
         <v>200</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -1630,7 +1636,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1674,33 +1680,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="45"/>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1709,125 +1715,125 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="46"/>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="46"/>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="46"/>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="46"/>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="47"/>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="48"/>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="48"/>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1842,12 +1848,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2100,18 +2108,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2119,5 +2125,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Brazil - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Brazil - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliana.ferreira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{BDA85394-75DD-41A1-B8FF-18D92543FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CA5EE4-645F-48F6-82B2-DE573146097A}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{BDA85394-75DD-41A1-B8FF-18D92543FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3138DB2B-8249-46CB-B806-502005F9BE60}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,70 +74,88 @@
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>BRA/22/007 Desenvolvimento Sul do Piaui</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00143571</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>The number of beneficiaries</t>
+  </si>
+  <si>
+    <t>The project will implement sustainable social technologies based on the use of soil, water and biodiversity conservation technologies in degraded areas, in a participatory manner, for families affected by environmental damage, including: construction of zero-base dams (BBZ), implementation of Integration systems Crop-Livestock-Forest (ILPF) and Agroforestry Systems (SAFs), construction of ecological stoves, cisterns for capturing and storing water for human consumption, production and installation of sanitary units (Tevap septic tank, biodigestor tank, round bathroom), oven ecological, sertanejo biodigester, gray water reuse system, among others;</t>
+  </si>
+  <si>
+    <t>Enel</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Water Services</t>
+  </si>
+  <si>
+    <t>Number of project beneficiary families with access to water at home</t>
+  </si>
+  <si>
+    <t>155 HH</t>
+  </si>
+  <si>
+    <t>Complete execution of the construction of water distribution installations, to be built in the municipality of São Gonçalo do Gurguéia – PI, in the Macaco, Araras, Cipoal, Barra do Brejo, Buritizinho, Burito do Meio and Burito Grande communities. The project will install infrastructure to promote access to water for all families in the communities in the area direct influenced by the solar plant and adjacent communities. The sizing and engineering project will be previously developed and made available by ENEL (donor), after alignments with the government of the municipality of São Gonçalo do Gurguéia and the government of the State of Piaui</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of students and teachers from São Gonçalo and surrounding municipalities trained in environmental protection practices in degraded areas/use of environmental assets and sustainable energy;</t>
+  </si>
+  <si>
+    <t>This activity/indicator is part of a broader project scope. An environmental training program for public schools will be conducted with two priority focuses: i) conservation of natural resources and control of the environment, especially the local biome, encouraging new habits and sustainable practices; and ii) renewable energies, environment and sustainability.</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>BRA/22/007 Desenvolvimento Sul do Piaui</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00143571</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t>The number of beneficiaries</t>
-  </si>
-  <si>
-    <t>415 HH</t>
-  </si>
-  <si>
-    <t>The project will implement sustainable social technologies based on the use of soil, water and biodiversity conservation technologies in degraded areas, in a participatory manner, for families affected by environmental damage, including: construction of zero-base dams (BBZ), implementation of Integration systems Crop-Livestock-Forest (ILPF) and Agroforestry Systems (SAFs), construction of ecological stoves, cisterns for capturing and storing water for human consumption, production and installation of sanitary units (Tevap septic tank, biodigestor tank, round bathroom), oven ecological, sertanejo biodigester, gray water reuse system, among others;</t>
-  </si>
-  <si>
-    <t>Enel</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Water Services</t>
-  </si>
-  <si>
-    <t>Number of project beneficiary families with access to water at home</t>
-  </si>
-  <si>
-    <t>155 HH</t>
-  </si>
-  <si>
-    <t>Complete execution of the construction of water distribution installations, to be built in the municipality of São Gonçalo do Gurguéia – PI, in the Macaco, Araras, Cipoal, Barra do Brejo, Buritizinho, Burito do Meio and Burito Grande communities. The project will install infrastructure to promote access to water for all families in the communities in the area direct influenced by the solar plant and adjacent communities. The sizing and engineering project will be previously developed and made available by ENEL (donor), after alignments with the government of the municipality of São Gonçalo do Gurguéia and the government of the State of Piaui</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Clean cooking</t>
   </si>
   <si>
     <t>Energy Efficiency</t>
@@ -146,16 +164,7 @@
     <t>Capacity Training</t>
   </si>
   <si>
-    <t>Number of students and teachers from São Gonçalo and surrounding municipalities trained in environmental protection practices in degraded areas/use of environmental assets and sustainable energy;</t>
-  </si>
-  <si>
-    <t>This activity/indicator is part of a broader project scope. An environmental training program for public schools will be conducted with two priority focuses: i) conservation of natural resources and control of the environment, especially the local biome, encouraging new habits and sustainable practices; and ii) renewable energies, environment and sustainability.</t>
-  </si>
-  <si>
     <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Clean cooking</t>
   </si>
   <si>
     <t> </t>
@@ -184,52 +193,64 @@
     <t>100% of beneficiary families assisted (close to 155 families)</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructire Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -238,7 +259,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -253,10 +277,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -265,19 +286,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -293,12 +314,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,8 +372,21 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,44 +399,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -544,23 +548,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -569,60 +577,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -630,26 +631,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -657,10 +686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -669,17 +698,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,235 +1014,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8EC4AB-E2E1-487F-8291-103B0EF6180A}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="5"/>
-    <col min="15" max="15" width="11" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15"/>
+      <c r="T1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="336">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>143571</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20">
         <v>1733569</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="14">
+        <v>415</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:21" ht="305.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="26" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="42"/>
+    </row>
+    <row r="4" spans="1:21" ht="183">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="H4" s="14">
+        <v>200</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="19" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" ht="183">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>200</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="42"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{0A848AC7-1792-44BE-8023-B743141A322F}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{B714A553-FD57-4A21-9677-80B5DB5ADF0C}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{B714A553-FD57-4A21-9677-80B5DB5ADF0C}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{7FA50029-4AE9-4664-9856-08ACE0A7036E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{7FA50029-4AE9-4664-9856-08ACE0A7036E}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{7CE0B984-DAA3-4E8A-988D-A756A744082C}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{88DABEEF-ED89-49D4-9CD0-D4DE44BF13B4}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{88DABEEF-ED89-49D4-9CD0-D4DE44BF13B4}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{0E49BAE4-CC1A-48A0-9E09-F816856DDD99}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{EA3DFB69-8DC6-4240-A687-DC2AB7A1DF8D}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{D1CD271C-1F40-4704-9AC7-BA1FDA5B7E32}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{423B902F-4BD5-48CB-AC0B-1FD2CC8EA63F}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{107C5E22-847B-40F6-B660-425299969614}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{BF8C6724-9BC4-4496-B940-B4322FB0F860}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1228,7 +1271,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{337C6A2C-E3C5-4BF5-A3EE-26A77F1F5DF4}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1242,204 +1285,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E05C33-9849-4222-9E1B-5253AC4A12BA}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="L1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="336">
-      <c r="A2" s="39">
+      <c r="A2" s="43">
         <v>143571</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="43">
+      <c r="B2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="47">
         <v>1733569</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>415</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
+      <c r="M2" s="10"/>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="305.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="183">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="O3" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="183">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>200</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>37</v>
+      <c r="M4" s="9"/>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="11" t="s">
-        <v>39</v>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="M5" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1518,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96FF5917-1CB4-4E9B-BF8D-A9E4EDB45E7C}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -1489,154 +1532,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="54.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>12</v>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="198">
-      <c r="A2" s="39">
+      <c r="A2" s="43">
         <v>143571</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="43">
+      <c r="B2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="47">
         <v>1733569</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="152.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="167.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="M5" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="152.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="167.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>200</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1698,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -1667,198 +1710,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="45"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="45"/>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="49" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46"/>
-      <c r="B6" t="s">
+      <c r="B6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46"/>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" t="s">
+      <c r="B9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="49" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="47" t="s">
+      <c r="B10" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="47"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="48" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="48"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" s="50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="48"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" s="50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="50" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2107,7 +2151,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2116,14 +2160,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982F682C-98F4-4D68-A81E-CA1E590CDE5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{982F682C-98F4-4D68-A81E-CA1E590CDE5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>